--- a/medicine/Mort/Bellacourt_Military_Cemetery,_Rivière/Bellacourt_Military_Cemetery,_Rivière.xlsx
+++ b/medicine/Mort/Bellacourt_Military_Cemetery,_Rivière/Bellacourt_Military_Cemetery,_Rivière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bellacourt_Military_Cemetery,_Rivi%C3%A8re</t>
+          <t>Bellacourt_Military_Cemetery,_Rivière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bellacourt Military Cemetery, Rivière est un cimetière militaire de la Première Guerre mondiale, situé sur le territoire de la commune de Rivière (Pas-de-Calais), dans le département du Pas-de-Calais, au sud-ouest d'Arras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bellacourt_Military_Cemetery,_Rivi%C3%A8re</t>
+          <t>Bellacourt_Military_Cemetery,_Rivière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière est situé à 500 m à l'ouest du village, au lieu-dit Bellacourt, chemin de Basseux.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bellacourt_Military_Cemetery,_Rivi%C3%A8re</t>
+          <t>Bellacourt_Military_Cemetery,_Rivière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a été commencé par les troupes françaises en octobre 1914 lors des combats de la Course à la mer. La dédense du secteur a été confiée aux Britanniques début 1916 et les victimes britanniques et canadiennes ont été inhumées dans ce cimetière jusqu'à la fin de la guerre.
 Il y a 434 sépultures du Commonwealth de la guerre de 1914-18 commémorées sur ce site, dont 1 seule non identifiées. Il y a également 116 sépultures françaises ici et 1 sépulture allemande inconnue
-[1].
+.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bellacourt_Military_Cemetery,_Rivi%C3%A8re</t>
+          <t>Bellacourt_Military_Cemetery,_Rivière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce  vaste cimetière mesure 70 m sur 60.
 La terrase du fond du cimetière, accessible par deux escaliers monumentaux, où sont posées la Croix du sacrifice et la stèle de la mémoire, représente un rectagle de 35 m sur 15.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bellacourt_Military_Cemetery,_Rivi%C3%A8re</t>
+          <t>Bellacourt_Military_Cemetery,_Rivière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,6 +628,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
